--- a/enero2023.xlsx
+++ b/enero2023.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aed31\Desktop\adam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aed31\Desktop\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{088BEB6F-EBD6-4622-8075-47C475260D32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF8A1647-333D-498B-96E5-E7498268A9DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="732" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,12 +37,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
-    <t>Flow</t>
-  </si>
-  <si>
-    <t>Rainfall</t>
-  </si>
-  <si>
     <t>1/13/2022 12:00:00 AM</t>
   </si>
   <si>
@@ -118,7 +112,13 @@
     <t>1/14/2022 12:00:00 AM</t>
   </si>
   <si>
-    <t>Time</t>
+    <t>time</t>
+  </si>
+  <si>
+    <t>flow</t>
+  </si>
+  <si>
+    <t>rainfall</t>
   </si>
 </sst>
 </file>
@@ -457,7 +457,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -469,18 +469,18 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" s="3">
         <v>3.4000000000000002E-2</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" s="3">
         <f>B2+C2*0.5</f>
@@ -505,7 +505,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" s="3">
         <f t="shared" ref="B4:B26" si="0">B3+C3*0.5</f>
@@ -518,7 +518,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" s="3">
         <f t="shared" si="0"/>
@@ -531,7 +531,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" s="3">
         <f t="shared" si="0"/>
@@ -544,7 +544,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" s="3">
         <f t="shared" si="0"/>
@@ -557,7 +557,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" s="3">
         <f t="shared" si="0"/>
@@ -570,7 +570,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9" s="3">
         <f t="shared" si="0"/>
@@ -583,7 +583,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10" s="3">
         <f t="shared" si="0"/>
@@ -596,7 +596,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" s="3">
         <f t="shared" si="0"/>
@@ -609,7 +609,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12" s="3">
         <v>3.3709999999999996</v>
@@ -621,7 +621,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13" s="3">
         <f t="shared" si="0"/>
@@ -634,7 +634,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B14" s="3">
         <f t="shared" si="0"/>
@@ -647,7 +647,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B15" s="3">
         <f t="shared" si="0"/>
@@ -660,7 +660,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B16" s="3">
         <f>B15-C15*0.5</f>
@@ -673,7 +673,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B17" s="3">
         <f t="shared" si="0"/>
@@ -687,7 +687,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B18" s="3">
         <f t="shared" si="0"/>
@@ -701,7 +701,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B19" s="3">
         <f t="shared" si="0"/>
@@ -715,7 +715,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B20" s="3">
         <f t="shared" si="0"/>
@@ -729,7 +729,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B21" s="3">
         <f t="shared" si="0"/>
@@ -743,7 +743,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B22" s="3">
         <f t="shared" si="0"/>
@@ -757,7 +757,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B23" s="3">
         <f>B22-C22*0.5</f>
@@ -771,7 +771,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B24" s="3">
         <f t="shared" si="0"/>
@@ -785,7 +785,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" s="3">
         <f t="shared" si="0"/>
@@ -799,7 +799,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B26" s="3">
         <f t="shared" si="0"/>

--- a/enero2023.xlsx
+++ b/enero2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aed31\Desktop\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF8A1647-333D-498B-96E5-E7498268A9DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BAA157-1957-4F73-B266-75263DCB79AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="732" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -125,6 +125,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -171,9 +174,9 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,7 +460,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -468,344 +471,344 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>2.08</v>
       </c>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <f>B2+C2*0.5</f>
         <v>1.0740000000000001</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>2.08</v>
       </c>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <f t="shared" ref="B4:B26" si="0">B3+C3*0.5</f>
         <v>2.1139999999999999</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>0</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <f t="shared" si="0"/>
         <v>2.1139999999999999</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>0</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <f t="shared" si="0"/>
         <v>2.1139999999999999</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>1.04</v>
       </c>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <f t="shared" si="0"/>
         <v>2.6339999999999999</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>1.04</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <f t="shared" si="0"/>
         <v>3.1539999999999999</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>1.04</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <f t="shared" si="0"/>
         <v>3.6739999999999999</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>2.08</v>
       </c>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <f t="shared" si="0"/>
         <v>4.7140000000000004</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>2.08</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <f t="shared" si="0"/>
         <v>5.7540000000000004</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>1.04</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>3.3709999999999996</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>0</v>
       </c>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <f t="shared" si="0"/>
         <v>3.3709999999999996</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>1.04</v>
       </c>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <f t="shared" si="0"/>
         <v>3.8909999999999996</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>1.04</v>
       </c>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <f t="shared" si="0"/>
         <v>4.4109999999999996</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>1.04</v>
       </c>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <f>B15-C15*0.5</f>
         <v>3.8909999999999996</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <v>0</v>
       </c>
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <f t="shared" si="0"/>
         <v>3.8909999999999996</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <f>C6*4</f>
         <v>4.16</v>
       </c>
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <f t="shared" si="0"/>
         <v>5.9710000000000001</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <f t="shared" ref="C18:C26" si="1">C7*4</f>
         <v>4.16</v>
       </c>
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <f t="shared" si="0"/>
         <v>8.0510000000000002</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
         <f t="shared" si="1"/>
         <v>4.16</v>
       </c>
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <f t="shared" si="0"/>
         <v>10.131</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <f t="shared" si="1"/>
         <v>8.32</v>
       </c>
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <f t="shared" si="0"/>
         <v>14.291</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <f t="shared" si="1"/>
         <v>8.32</v>
       </c>
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <f t="shared" si="0"/>
         <v>18.451000000000001</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <f t="shared" si="1"/>
         <v>4.16</v>
       </c>
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <f>B22-C22*0.5</f>
         <v>16.371000000000002</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="2">
         <f t="shared" si="0"/>
         <v>16.371000000000002</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="2">
         <f t="shared" si="1"/>
         <v>4.16</v>
       </c>
       <c r="D24" s="1"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="2">
         <f t="shared" si="0"/>
         <v>18.451000000000001</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="2">
         <f t="shared" si="1"/>
         <v>4.16</v>
       </c>
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="2">
         <f t="shared" si="0"/>
         <v>20.530999999999999</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="2">
         <f t="shared" si="1"/>
         <v>4.16</v>
       </c>

--- a/enero2023.xlsx
+++ b/enero2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aed31\Desktop\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BAA157-1957-4F73-B266-75263DCB79AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366915C8-DD11-4550-8AD3-77768753977A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="732" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -126,7 +126,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -176,7 +176,7 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,7 +460,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/enero2023.xlsx
+++ b/enero2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aed31\Desktop\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366915C8-DD11-4550-8AD3-77768753977A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59807840-E098-436B-8CE0-06CE7C1B4355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="732" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>1/13/2022 12:00:00 AM</t>
   </si>
@@ -119,6 +119,42 @@
   </si>
   <si>
     <t>rainfall</t>
+  </si>
+  <si>
+    <t>nh3</t>
+  </si>
+  <si>
+    <t>no2</t>
+  </si>
+  <si>
+    <t>no3</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>ss</t>
+  </si>
+  <si>
+    <t>tss</t>
+  </si>
+  <si>
+    <t>nh3o</t>
+  </si>
+  <si>
+    <t>no2o</t>
+  </si>
+  <si>
+    <t>no3o</t>
+  </si>
+  <si>
+    <t>po</t>
+  </si>
+  <si>
+    <t>sso</t>
+  </si>
+  <si>
+    <t>tsso</t>
   </si>
 </sst>
 </file>
@@ -171,9 +207,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -457,362 +492,855 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.6640625" customWidth="1"/>
-    <col min="4" max="4" width="22.109375" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="14.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
+      <c r="D1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>2.08</v>
       </c>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
-        <f>B2+C2*0.5</f>
+      <c r="B3" s="1">
         <v>1.0740000000000001</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>2.08</v>
       </c>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="D3" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
-        <f t="shared" ref="B4:B26" si="0">B3+C3*0.5</f>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
         <v>2.1139999999999999</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>0</v>
       </c>
       <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
-        <f t="shared" si="0"/>
+      <c r="B5" s="1">
         <v>2.1139999999999999</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>0</v>
       </c>
       <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
-        <f t="shared" si="0"/>
+      <c r="B6" s="1">
         <v>2.1139999999999999</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>1.04</v>
       </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="D6" s="1">
+        <v>45</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1">
+        <v>33</v>
+      </c>
+      <c r="G6" s="1">
+        <v>3</v>
+      </c>
+      <c r="H6" s="1">
+        <v>50</v>
+      </c>
+      <c r="I6" s="1">
+        <v>512</v>
+      </c>
+      <c r="J6" s="1">
+        <v>53</v>
+      </c>
+      <c r="K6" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="2">
-        <f t="shared" si="0"/>
+      <c r="L6" s="1">
+        <v>30</v>
+      </c>
+      <c r="M6" s="1">
+        <v>5</v>
+      </c>
+      <c r="N6" s="1">
+        <v>55</v>
+      </c>
+      <c r="O6" s="1">
+        <v>500</v>
+      </c>
+      <c r="P6" s="1"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
         <v>2.6339999999999999</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>1.04</v>
       </c>
       <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2">
-        <f t="shared" si="0"/>
+      <c r="B8" s="1">
         <v>3.1539999999999999</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>1.04</v>
       </c>
       <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="2">
-        <f t="shared" si="0"/>
+      <c r="B9" s="1">
         <v>3.6739999999999999</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>2.08</v>
       </c>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="D9" s="1">
+        <v>80</v>
+      </c>
+      <c r="E9" s="1">
+        <v>9</v>
+      </c>
+      <c r="F9" s="1">
+        <v>87</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2</v>
+      </c>
+      <c r="H9" s="1">
+        <v>89</v>
+      </c>
+      <c r="I9" s="1">
+        <v>773</v>
+      </c>
+      <c r="J9" s="1">
+        <v>94</v>
+      </c>
+      <c r="K9" s="1">
+        <v>10</v>
+      </c>
+      <c r="L9" s="1">
+        <v>90</v>
+      </c>
+      <c r="M9" s="1">
+        <v>5</v>
+      </c>
+      <c r="N9" s="1">
+        <v>90</v>
+      </c>
+      <c r="O9" s="1">
+        <v>748</v>
+      </c>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="2">
-        <f t="shared" si="0"/>
+      <c r="B10" s="1">
         <v>4.7140000000000004</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>2.08</v>
       </c>
       <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="2">
-        <f t="shared" si="0"/>
-        <v>5.7540000000000004</v>
-      </c>
-      <c r="C11" s="2">
+      <c r="B11" s="1">
+        <v>5.7539999999999996</v>
+      </c>
+      <c r="C11" s="1">
         <v>1.04</v>
       </c>
       <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="2">
-        <v>3.3709999999999996</v>
-      </c>
-      <c r="C12" s="2">
+      <c r="B12" s="1">
+        <v>3.371</v>
+      </c>
+      <c r="C12" s="1">
         <v>0</v>
       </c>
       <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="2">
-        <f t="shared" si="0"/>
-        <v>3.3709999999999996</v>
-      </c>
-      <c r="C13" s="2">
+      <c r="B13" s="1">
+        <v>3.371</v>
+      </c>
+      <c r="C13" s="1">
         <v>1.04</v>
       </c>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+      <c r="D13" s="1">
+        <v>36</v>
+      </c>
+      <c r="E13" s="1">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F13" s="1">
+        <v>65</v>
+      </c>
+      <c r="G13" s="1">
+        <v>7</v>
+      </c>
+      <c r="H13" s="1">
+        <v>75</v>
+      </c>
+      <c r="I13" s="1">
+        <v>652</v>
+      </c>
+      <c r="J13" s="1">
+        <v>30</v>
+      </c>
+      <c r="K13" s="1">
+        <v>10</v>
+      </c>
+      <c r="L13" s="1">
+        <v>60</v>
+      </c>
+      <c r="M13" s="1">
+        <v>6</v>
+      </c>
+      <c r="N13" s="1">
+        <v>60</v>
+      </c>
+      <c r="O13" s="1">
+        <v>645</v>
+      </c>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="2">
-        <f t="shared" si="0"/>
-        <v>3.8909999999999996</v>
-      </c>
-      <c r="C14" s="2">
+      <c r="B14" s="1">
+        <v>3.891</v>
+      </c>
+      <c r="C14" s="1">
         <v>1.04</v>
       </c>
       <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="2">
-        <f t="shared" si="0"/>
+      <c r="B15" s="1">
         <v>4.4109999999999996</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>1.04</v>
       </c>
       <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="2">
-        <f>B15-C15*0.5</f>
-        <v>3.8909999999999996</v>
-      </c>
-      <c r="C16" s="2">
+      <c r="B16" s="1">
+        <v>3.891</v>
+      </c>
+      <c r="C16" s="1">
         <v>0</v>
       </c>
       <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="2">
-        <f t="shared" si="0"/>
-        <v>3.8909999999999996</v>
-      </c>
-      <c r="C17" s="2">
-        <f>C6*4</f>
+      <c r="B17" s="1">
+        <v>3.891</v>
+      </c>
+      <c r="C17" s="1">
         <v>4.16</v>
       </c>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
+      <c r="D17" s="1">
+        <v>12</v>
+      </c>
+      <c r="E17" s="1">
+        <v>7</v>
+      </c>
+      <c r="F17" s="1">
+        <v>23</v>
+      </c>
+      <c r="G17" s="1">
+        <v>3</v>
+      </c>
+      <c r="H17" s="1">
+        <v>92</v>
+      </c>
+      <c r="I17" s="1">
+        <v>800</v>
+      </c>
+      <c r="J17" s="1">
+        <v>17</v>
+      </c>
+      <c r="K17" s="1">
+        <v>5</v>
+      </c>
+      <c r="L17" s="1">
+        <v>20</v>
+      </c>
+      <c r="M17" s="1">
+        <v>4</v>
+      </c>
+      <c r="N17" s="1">
+        <v>85</v>
+      </c>
+      <c r="O17" s="1">
+        <v>760</v>
+      </c>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="2">
-        <f t="shared" si="0"/>
+      <c r="B18" s="1">
         <v>5.9710000000000001</v>
       </c>
-      <c r="C18" s="2">
-        <f t="shared" ref="C18:C26" si="1">C7*4</f>
+      <c r="C18" s="1">
         <v>4.16</v>
       </c>
       <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="2">
-        <f t="shared" si="0"/>
+      <c r="B19" s="1">
         <v>8.0510000000000002</v>
       </c>
-      <c r="C19" s="2">
-        <f t="shared" si="1"/>
-        <v>4.16</v>
+      <c r="C19" s="1">
+        <v>3.2</v>
       </c>
       <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="2">
-        <f t="shared" si="0"/>
-        <v>10.131</v>
-      </c>
-      <c r="C20" s="2">
-        <f t="shared" si="1"/>
-        <v>8.32</v>
+      <c r="B20" s="1">
+        <v>7.1</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1.3</v>
       </c>
       <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="2">
-        <f t="shared" si="0"/>
-        <v>14.291</v>
-      </c>
-      <c r="C21" s="2">
-        <f t="shared" si="1"/>
-        <v>8.32</v>
-      </c>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
+      <c r="B21" s="1">
+        <v>6.6</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>4</v>
+      </c>
+      <c r="F21" s="1">
+        <v>12</v>
+      </c>
+      <c r="G21" s="1">
+        <v>2</v>
+      </c>
+      <c r="H21" s="1">
+        <v>43</v>
+      </c>
+      <c r="I21" s="1">
+        <v>500</v>
+      </c>
+      <c r="J21" s="1">
+        <v>3</v>
+      </c>
+      <c r="K21" s="1">
+        <v>3</v>
+      </c>
+      <c r="L21" s="1">
+        <v>7</v>
+      </c>
+      <c r="M21" s="1">
+        <v>1</v>
+      </c>
+      <c r="N21" s="1">
+        <v>40</v>
+      </c>
+      <c r="O21" s="1">
+        <v>487</v>
+      </c>
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="2">
-        <f t="shared" si="0"/>
-        <v>18.451000000000001</v>
-      </c>
-      <c r="C22" s="2">
-        <f t="shared" si="1"/>
-        <v>4.16</v>
+      <c r="B22" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0</v>
       </c>
       <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="2">
-        <f>B22-C22*0.5</f>
-        <v>16.371000000000002</v>
-      </c>
-      <c r="C23" s="2">
-        <f t="shared" si="1"/>
+      <c r="B23" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="C23" s="1">
         <v>0</v>
       </c>
       <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>4</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>12</v>
+      </c>
+      <c r="I23" s="1">
+        <v>97</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1">
+        <v>2</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0</v>
+      </c>
+      <c r="N23" s="1">
+        <v>10</v>
+      </c>
+      <c r="O23" s="1">
+        <v>90</v>
+      </c>
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="2">
-        <f t="shared" si="0"/>
-        <v>16.371000000000002</v>
-      </c>
-      <c r="C24" s="2">
-        <f t="shared" si="1"/>
-        <v>4.16</v>
+      <c r="B24" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
       </c>
       <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="2">
-        <f t="shared" si="0"/>
-        <v>18.451000000000001</v>
-      </c>
-      <c r="C25" s="2">
-        <f t="shared" si="1"/>
-        <v>4.16</v>
+      <c r="B25" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
       </c>
       <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="2">
-        <f t="shared" si="0"/>
-        <v>20.530999999999999</v>
-      </c>
-      <c r="C26" s="2">
-        <f t="shared" si="1"/>
-        <v>4.16</v>
-      </c>
-      <c r="D26" s="1"/>
+      <c r="B26" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0</v>
+      </c>
+      <c r="L26" s="1">
+        <v>0</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0</v>
+      </c>
+      <c r="N26" s="1">
+        <v>0</v>
+      </c>
+      <c r="O26" s="1">
+        <v>0</v>
+      </c>
+      <c r="P26" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/enero2023.xlsx
+++ b/enero2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aed31\Desktop\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59807840-E098-436B-8CE0-06CE7C1B4355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D25867C-A923-4AC8-869F-FE69C7FC654C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="732" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="41">
   <si>
     <t>1/13/2022 12:00:00 AM</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t>tsso</t>
+  </si>
+  <si>
+    <t>time1</t>
   </si>
 </sst>
 </file>
@@ -492,79 +495,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="14.21875" customWidth="1"/>
+    <col min="1" max="2" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>2.08</v>
       </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
@@ -598,22 +604,27 @@
       <c r="O2" s="1">
         <v>0</v>
       </c>
-      <c r="P2" s="1"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
         <v>1.0740000000000001</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>2.08</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>2</v>
       </c>
-      <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -625,18 +636,21 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q3" s="1"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
         <v>2.1139999999999999</v>
       </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -649,19 +663,22 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q4" s="1"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
         <v>2.1139999999999999</v>
       </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -672,66 +689,72 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q5" s="1"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
         <v>2.1139999999999999</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="1">
         <v>1.04</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>45</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>3</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>33</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>3</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>50</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <v>512</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K6" s="1">
         <v>53</v>
       </c>
-      <c r="K6" s="1">
+      <c r="L6" s="1">
         <v>5</v>
       </c>
-      <c r="L6" s="1">
+      <c r="M6" s="1">
         <v>30</v>
       </c>
-      <c r="M6" s="1">
+      <c r="N6" s="1">
         <v>5</v>
       </c>
-      <c r="N6" s="1">
+      <c r="O6" s="1">
         <v>55</v>
       </c>
-      <c r="O6" s="1">
+      <c r="P6" s="1">
         <v>500</v>
       </c>
-      <c r="P6" s="1"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q6" s="1"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
         <v>2.6339999999999999</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D7" s="1">
         <v>1.04</v>
       </c>
-      <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -744,19 +767,22 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q7" s="1"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1">
         <v>3.1539999999999999</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D8" s="1">
         <v>1.04</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="E8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -767,66 +793,72 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q8" s="1"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1">
         <v>3.6739999999999999</v>
       </c>
-      <c r="C9" s="1">
+      <c r="D9" s="1">
         <v>2.08</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E9" s="1">
         <v>80</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>9</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>87</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>2</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <v>89</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J9" s="1">
         <v>773</v>
       </c>
-      <c r="J9" s="1">
+      <c r="K9" s="1">
         <v>94</v>
       </c>
-      <c r="K9" s="1">
+      <c r="L9" s="1">
         <v>10</v>
       </c>
-      <c r="L9" s="1">
+      <c r="M9" s="1">
         <v>90</v>
       </c>
-      <c r="M9" s="1">
+      <c r="N9" s="1">
         <v>5</v>
       </c>
-      <c r="N9" s="1">
+      <c r="O9" s="1">
         <v>90</v>
       </c>
-      <c r="O9" s="1">
+      <c r="P9" s="1">
         <v>748</v>
       </c>
-      <c r="P9" s="1"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q9" s="1"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1">
         <v>4.7140000000000004</v>
       </c>
-      <c r="C10" s="1">
+      <c r="D10" s="1">
         <v>2.08</v>
       </c>
-      <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -839,18 +871,21 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q10" s="1"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1">
         <v>5.7539999999999996</v>
       </c>
-      <c r="C11" s="1">
+      <c r="D11" s="1">
         <v>1.04</v>
       </c>
-      <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -863,18 +898,21 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q11" s="1"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1">
         <v>3.371</v>
       </c>
-      <c r="C12" s="1">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1"/>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -887,66 +925,72 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q12" s="1"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1">
         <v>3.371</v>
       </c>
-      <c r="C13" s="1">
+      <c r="D13" s="1">
         <v>1.04</v>
       </c>
-      <c r="D13" s="1">
+      <c r="E13" s="1">
         <v>36</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F13" s="1">
         <v>8.6999999999999993</v>
       </c>
-      <c r="F13" s="1">
+      <c r="G13" s="1">
         <v>65</v>
       </c>
-      <c r="G13" s="1">
+      <c r="H13" s="1">
         <v>7</v>
       </c>
-      <c r="H13" s="1">
+      <c r="I13" s="1">
         <v>75</v>
       </c>
-      <c r="I13" s="1">
+      <c r="J13" s="1">
         <v>652</v>
       </c>
-      <c r="J13" s="1">
+      <c r="K13" s="1">
         <v>30</v>
       </c>
-      <c r="K13" s="1">
+      <c r="L13" s="1">
         <v>10</v>
       </c>
-      <c r="L13" s="1">
+      <c r="M13" s="1">
         <v>60</v>
       </c>
-      <c r="M13" s="1">
+      <c r="N13" s="1">
         <v>6</v>
       </c>
-      <c r="N13" s="1">
+      <c r="O13" s="1">
         <v>60</v>
       </c>
-      <c r="O13" s="1">
+      <c r="P13" s="1">
         <v>645</v>
       </c>
-      <c r="P13" s="1"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q13" s="1"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1">
         <v>3.891</v>
       </c>
-      <c r="C14" s="1">
+      <c r="D14" s="1">
         <v>1.04</v>
       </c>
-      <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -959,18 +1003,21 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q14" s="1"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1">
         <v>4.4109999999999996</v>
       </c>
-      <c r="C15" s="1">
+      <c r="D15" s="1">
         <v>1.04</v>
       </c>
-      <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -983,18 +1030,21 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q15" s="1"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="1">
         <v>3.891</v>
       </c>
-      <c r="C16" s="1">
-        <v>0</v>
-      </c>
-      <c r="D16" s="1"/>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -1007,66 +1057,72 @@
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q16" s="1"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="1">
         <v>3.891</v>
       </c>
-      <c r="C17" s="1">
+      <c r="D17" s="1">
         <v>4.16</v>
       </c>
-      <c r="D17" s="1">
+      <c r="E17" s="1">
         <v>12</v>
       </c>
-      <c r="E17" s="1">
+      <c r="F17" s="1">
         <v>7</v>
       </c>
-      <c r="F17" s="1">
+      <c r="G17" s="1">
         <v>23</v>
       </c>
-      <c r="G17" s="1">
+      <c r="H17" s="1">
         <v>3</v>
       </c>
-      <c r="H17" s="1">
+      <c r="I17" s="1">
         <v>92</v>
       </c>
-      <c r="I17" s="1">
+      <c r="J17" s="1">
         <v>800</v>
       </c>
-      <c r="J17" s="1">
+      <c r="K17" s="1">
         <v>17</v>
       </c>
-      <c r="K17" s="1">
+      <c r="L17" s="1">
         <v>5</v>
       </c>
-      <c r="L17" s="1">
+      <c r="M17" s="1">
         <v>20</v>
       </c>
-      <c r="M17" s="1">
+      <c r="N17" s="1">
         <v>4</v>
       </c>
-      <c r="N17" s="1">
+      <c r="O17" s="1">
         <v>85</v>
       </c>
-      <c r="O17" s="1">
+      <c r="P17" s="1">
         <v>760</v>
       </c>
-      <c r="P17" s="1"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q17" s="1"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="1">
         <v>5.9710000000000001</v>
       </c>
-      <c r="C18" s="1">
+      <c r="D18" s="1">
         <v>4.16</v>
       </c>
-      <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -1079,18 +1135,21 @@
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q18" s="1"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="1">
         <v>8.0510000000000002</v>
       </c>
-      <c r="C19" s="1">
+      <c r="D19" s="1">
         <v>3.2</v>
       </c>
-      <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -1103,18 +1162,21 @@
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q19" s="1"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="1">
         <v>7.1</v>
       </c>
-      <c r="C20" s="1">
+      <c r="D20" s="1">
         <v>1.3</v>
       </c>
-      <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -1127,66 +1189,72 @@
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q20" s="1"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="1">
         <v>6.6</v>
       </c>
-      <c r="C21" s="1">
+      <c r="D21" s="1">
         <v>0.2</v>
       </c>
-      <c r="D21" s="1">
-        <v>0</v>
-      </c>
       <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
         <v>4</v>
       </c>
-      <c r="F21" s="1">
+      <c r="G21" s="1">
         <v>12</v>
       </c>
-      <c r="G21" s="1">
+      <c r="H21" s="1">
         <v>2</v>
       </c>
-      <c r="H21" s="1">
+      <c r="I21" s="1">
         <v>43</v>
       </c>
-      <c r="I21" s="1">
+      <c r="J21" s="1">
         <v>500</v>
-      </c>
-      <c r="J21" s="1">
-        <v>3</v>
       </c>
       <c r="K21" s="1">
         <v>3</v>
       </c>
       <c r="L21" s="1">
+        <v>3</v>
+      </c>
+      <c r="M21" s="1">
         <v>7</v>
       </c>
-      <c r="M21" s="1">
+      <c r="N21" s="1">
         <v>1</v>
       </c>
-      <c r="N21" s="1">
+      <c r="O21" s="1">
         <v>40</v>
       </c>
-      <c r="O21" s="1">
+      <c r="P21" s="1">
         <v>487</v>
       </c>
-      <c r="P21" s="1"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q21" s="1"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="1">
         <v>5.3</v>
       </c>
-      <c r="C22" s="1">
-        <v>0</v>
-      </c>
-      <c r="D22" s="1"/>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -1199,64 +1267,70 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q22" s="1"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="1">
         <v>3.1</v>
       </c>
-      <c r="C23" s="1">
-        <v>0</v>
-      </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1">
-        <v>0</v>
-      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1"/>
       <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
         <v>4</v>
       </c>
-      <c r="G23" s="1">
-        <v>0</v>
-      </c>
       <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
         <v>12</v>
       </c>
-      <c r="I23" s="1">
+      <c r="J23" s="1">
         <v>97</v>
       </c>
-      <c r="J23" s="1">
-        <v>0</v>
-      </c>
       <c r="K23" s="1">
         <v>0</v>
       </c>
       <c r="L23" s="1">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1">
         <v>2</v>
       </c>
-      <c r="M23" s="1">
-        <v>0</v>
-      </c>
       <c r="N23" s="1">
+        <v>0</v>
+      </c>
+      <c r="O23" s="1">
         <v>10</v>
       </c>
-      <c r="O23" s="1">
+      <c r="P23" s="1">
         <v>90</v>
       </c>
-      <c r="P23" s="1"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q23" s="1"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="1">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C24" s="1">
-        <v>0</v>
-      </c>
-      <c r="D24" s="1"/>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -1269,18 +1343,21 @@
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q24" s="1"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C25" s="1">
-        <v>0</v>
-      </c>
-      <c r="D25" s="1"/>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -1293,17 +1370,18 @@
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q25" s="1"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="1">
         <v>0.3</v>
       </c>
-      <c r="C26" s="1">
-        <v>0</v>
-      </c>
       <c r="D26" s="1">
         <v>0</v>
       </c>
@@ -1340,7 +1418,10 @@
       <c r="O26" s="1">
         <v>0</v>
       </c>
-      <c r="P26" s="1"/>
+      <c r="P26" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/enero2023.xlsx
+++ b/enero2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aed31\Desktop\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D25867C-A923-4AC8-869F-FE69C7FC654C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA7614E-2C51-46C3-A80E-1DD8403C3792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="732" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>1/13/2022 12:00:00 AM</t>
   </si>
@@ -157,15 +157,16 @@
     <t>tsso</t>
   </si>
   <si>
-    <t>time1</t>
+    <t>Hour</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="167" formatCode="[$-409]h:mm\ AM/PM;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -210,11 +211,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -498,12 +500,13 @@
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.6640625" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="6" width="14.21875" customWidth="1"/>
   </cols>
@@ -562,7 +565,7 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4">
         <v>0</v>
       </c>
       <c r="C2" s="1">
@@ -613,8 +616,8 @@
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>1</v>
+      <c r="B3" s="4">
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="C3" s="1">
         <v>1.0740000000000001</v>
@@ -642,8 +645,8 @@
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>2</v>
+      <c r="B4" s="4">
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="C4" s="1">
         <v>2.1139999999999999</v>
@@ -669,8 +672,8 @@
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>3</v>
+      <c r="B5" s="4">
+        <v>0.125</v>
       </c>
       <c r="C5" s="1">
         <v>2.1139999999999999</v>
@@ -695,8 +698,8 @@
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>4</v>
+      <c r="B6" s="4">
+        <v>0.16666666666666699</v>
       </c>
       <c r="C6" s="1">
         <v>2.1139999999999999</v>
@@ -746,8 +749,8 @@
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>5</v>
+      <c r="B7" s="4">
+        <v>0.20833333333333301</v>
       </c>
       <c r="C7" s="1">
         <v>2.6339999999999999</v>
@@ -773,8 +776,8 @@
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>6</v>
+      <c r="B8" s="4">
+        <v>0.25</v>
       </c>
       <c r="C8" s="1">
         <v>3.1539999999999999</v>
@@ -799,8 +802,8 @@
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>7</v>
+      <c r="B9" s="4">
+        <v>0.29166666666666702</v>
       </c>
       <c r="C9" s="1">
         <v>3.6739999999999999</v>
@@ -850,8 +853,8 @@
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>8</v>
+      <c r="B10" s="4">
+        <v>0.33333333333333298</v>
       </c>
       <c r="C10" s="1">
         <v>4.7140000000000004</v>
@@ -877,8 +880,8 @@
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>9</v>
+      <c r="B11" s="4">
+        <v>0.375</v>
       </c>
       <c r="C11" s="1">
         <v>5.7539999999999996</v>
@@ -904,8 +907,8 @@
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>10</v>
+      <c r="B12" s="4">
+        <v>0.41666666666666702</v>
       </c>
       <c r="C12" s="1">
         <v>3.371</v>
@@ -931,8 +934,8 @@
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>11</v>
+      <c r="B13" s="4">
+        <v>0.45833333333333298</v>
       </c>
       <c r="C13" s="1">
         <v>3.371</v>
@@ -982,8 +985,8 @@
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>12</v>
+      <c r="B14" s="4">
+        <v>0.5</v>
       </c>
       <c r="C14" s="1">
         <v>3.891</v>
@@ -1009,8 +1012,8 @@
       <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>13</v>
+      <c r="B15" s="4">
+        <v>0.54166666666666696</v>
       </c>
       <c r="C15" s="1">
         <v>4.4109999999999996</v>
@@ -1036,8 +1039,8 @@
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>14</v>
+      <c r="B16" s="4">
+        <v>0.58333333333333304</v>
       </c>
       <c r="C16" s="1">
         <v>3.891</v>
@@ -1063,8 +1066,8 @@
       <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>15</v>
+      <c r="B17" s="4">
+        <v>0.625</v>
       </c>
       <c r="C17" s="1">
         <v>3.891</v>
@@ -1114,8 +1117,8 @@
       <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>16</v>
+      <c r="B18" s="4">
+        <v>0.66666666666666696</v>
       </c>
       <c r="C18" s="1">
         <v>5.9710000000000001</v>
@@ -1141,8 +1144,8 @@
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>17</v>
+      <c r="B19" s="4">
+        <v>0.70833333333333304</v>
       </c>
       <c r="C19" s="1">
         <v>8.0510000000000002</v>
@@ -1168,8 +1171,8 @@
       <c r="A20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>18</v>
+      <c r="B20" s="4">
+        <v>0.75</v>
       </c>
       <c r="C20" s="1">
         <v>7.1</v>
@@ -1195,8 +1198,8 @@
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>19</v>
+      <c r="B21" s="4">
+        <v>0.79166666666666696</v>
       </c>
       <c r="C21" s="1">
         <v>6.6</v>
@@ -1246,8 +1249,8 @@
       <c r="A22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>20</v>
+      <c r="B22" s="4">
+        <v>0.83333333333333304</v>
       </c>
       <c r="C22" s="1">
         <v>5.3</v>
@@ -1273,8 +1276,8 @@
       <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>21</v>
+      <c r="B23" s="4">
+        <v>0.875</v>
       </c>
       <c r="C23" s="1">
         <v>3.1</v>
@@ -1322,8 +1325,8 @@
       <c r="A24" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>22</v>
+      <c r="B24" s="4">
+        <v>0.91666666666666696</v>
       </c>
       <c r="C24" s="1">
         <v>2.2999999999999998</v>
@@ -1349,8 +1352,8 @@
       <c r="A25" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>23</v>
+      <c r="B25" s="4">
+        <v>0.95833333333333304</v>
       </c>
       <c r="C25" s="1">
         <v>1.1000000000000001</v>
@@ -1376,8 +1379,8 @@
       <c r="A26" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>24</v>
+      <c r="B26" s="4">
+        <v>1</v>
       </c>
       <c r="C26" s="1">
         <v>0.3</v>

--- a/enero2023.xlsx
+++ b/enero2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aed31\Desktop\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA7614E-2C51-46C3-A80E-1DD8403C3792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510C822A-7DF7-4E1F-B297-191C235D3752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="732" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -166,7 +166,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
-    <numFmt numFmtId="167" formatCode="[$-409]h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="165" formatCode="[$-409]h:mm\ AM/PM;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -216,7 +216,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -500,7 +500,7 @@
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1380,7 +1380,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" s="1">
         <v>0.3</v>

--- a/enero2023.xlsx
+++ b/enero2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aed31\Desktop\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510C822A-7DF7-4E1F-B297-191C235D3752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915E8977-9BDE-4606-AB33-6CC30A7D3B9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="732" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
